--- a/uploads/sample_appointment.xlsx
+++ b/uploads/sample_appointment.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>ClinicDoctorId</t>
   </si>
@@ -101,16 +101,13 @@
     <t>Nas</t>
   </si>
   <si>
-    <t>Zahra Clinics</t>
+    <t>Test Clinics</t>
   </si>
   <si>
     <t>Internal Medicine</t>
   </si>
   <si>
     <t>Endocrinology/Diabetology</t>
-  </si>
-  <si>
-    <t>02/09/2025 16:00</t>
   </si>
 </sst>
 </file>
@@ -747,11 +744,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,10 +1099,13 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <cols>
+    <col min="14" max="14" width="15.8181818181818"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
@@ -1190,8 +1191,8 @@
       <c r="M2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
+      <c r="N2" s="2">
+        <v>45920.6666666667</v>
       </c>
     </row>
   </sheetData>
